--- a/biology/Zoologie/Cynotherium_sardous/Cynotherium_sardous.xlsx
+++ b/biology/Zoologie/Cynotherium_sardous/Cynotherium_sardous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynotherium · Dhole de Sardaigne
-Le Dhole de Sardaigne (Cynotherium sardous Studiati, 1857) est une espèce éteinte de la famille des Canidae[1], la seule du genre Cynotherium.
+Le Dhole de Sardaigne (Cynotherium sardous Studiati, 1857) est une espèce éteinte de la famille des Canidae, la seule du genre Cynotherium.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Pléistocène, cette espèce était endémique de la Sardaigne et de la Corse, îles qui étaient reliées par un pont terrestre à cette époque. Il a commencé à s’éteindre à partir du moment où les hommes se sont installées sur l’île[2].
-Cette espèce s’est adaptée à son environnement insulaire (peu de place, proies petites et rapides[3]) et est devenue plus petite au cours du temps[1].
-Il semble que Xenocyon soit l’ancêtre du genre Cynotherium. Parfois, on le considère comme un dérivé des dernières populations de Canis arnensis (ou Canis mosbachensis)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Pléistocène, cette espèce était endémique de la Sardaigne et de la Corse, îles qui étaient reliées par un pont terrestre à cette époque. Il a commencé à s’éteindre à partir du moment où les hommes se sont installées sur l’île.
+Cette espèce s’est adaptée à son environnement insulaire (peu de place, proies petites et rapides) et est devenue plus petite au cours du temps.
+Il semble que Xenocyon soit l’ancêtre du genre Cynotherium. Parfois, on le considère comme un dérivé des dernières populations de Canis arnensis (ou Canis mosbachensis).
 </t>
         </is>
       </c>
